--- a/excel/import_data_student.xlsx
+++ b/excel/import_data_student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>NOMOR INDUK MAGANG</t>
   </si>
@@ -55,25 +55,13 @@
     <t>NO HANDPHONE</t>
   </si>
   <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>lkjlkjl</t>
-  </si>
-  <si>
-    <t>asdfkj</t>
-  </si>
-  <si>
-    <t>kjkljlkj</t>
+    <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>Humas</t>
   </si>
   <si>
     <t>Perguruan Tinggi</t>
-  </si>
-  <si>
-    <t>Kasir</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>M-21-0007</t>
@@ -83,12 +71,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
     <numFmt numFmtId="166" formatCode="hh\:mm\:ss;@"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +106,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,19 +135,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF4F4F4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF4F4F4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF4F4F4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF4F4F4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -180,11 +193,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,110 +507,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="24" style="12" customWidth="1"/>
-    <col min="8" max="8" width="26" style="13" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="22" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="24" style="11" customWidth="1"/>
+    <col min="8" max="8" width="26" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22" style="15" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="9">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8">
+        <v>6666</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10">
         <v>666</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11">
-        <v>999</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11">
+        <v>666</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12">
+        <v>888</v>
+      </c>
+      <c r="I2" s="8">
+        <v>888</v>
+      </c>
+      <c r="J2" s="15">
+        <v>43592</v>
+      </c>
+      <c r="K2" s="15">
+        <v>43811</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="16">
-        <v>41255</v>
-      </c>
-      <c r="K2" s="16">
-        <v>43811</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="12">
-        <v>123</v>
-      </c>
+      <c r="M2" s="16">
+        <v>567666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
